--- a/app/config/tables/MIFVAC_MUL/forms/MIFVAC_MUL/MIFVAC_MUL.xlsx
+++ b/app/config/tables/MIFVAC_MUL/forms/MIFVAC_MUL/MIFVAC_MUL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D09E2F3-AA02-4041-B412-1C94B2406EE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F654666-1F50-45FF-95DF-265C2EEA0FC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -2263,8 +2263,8 @@
   <dimension ref="A1:J624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8387,9 +8387,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23FD29-3338-4879-B1BD-848935333D8A}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10247,9 +10247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:D9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
